--- a/datafiles0201.xlsx
+++ b/datafiles0201.xlsx
@@ -191,13 +191,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0_ "/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -319,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,6 +381,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,6 +421,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,7 +441,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W17" activeCellId="0" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -756,16 +765,16 @@
         <f aca="false">N3/Q3*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="15" t="n">
         <f aca="false">(L3-T3)/L3</f>
         <v>0.467333197404855</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="15" t="n">
         <f aca="false">S3/(L3-T3)</f>
         <v>0.654365700056264</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,11 +851,11 @@
         <f aca="false">N4/Q4*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="15" t="n">
         <f aca="false">(L4-T4)/L4</f>
         <v>0.467333197404855</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="15" t="n">
         <f aca="false">S4/(L4-T4)</f>
         <v>0.654365700056264</v>
       </c>
@@ -928,11 +937,11 @@
         <f aca="false">N5/Q5*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="15" t="n">
         <f aca="false">(L5-T5)/L5</f>
         <v>0.467333197404855</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="15" t="n">
         <f aca="false">S5/(L5-T5)</f>
         <v>0.654365700056263</v>
       </c>
@@ -1014,11 +1023,11 @@
         <f aca="false">N6/Q6*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="U6" s="15" t="n">
         <f aca="false">(L6-T6)/L6</f>
         <v>0.466788548322447</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="15" t="n">
         <f aca="false">S6/(L6-T6)</f>
         <v>0.655799080513612</v>
       </c>
@@ -1100,16 +1109,16 @@
         <f aca="false">N7/Q7*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="15" t="n">
         <f aca="false">(L7-T7)/L7</f>
         <v>0.43866437056981</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="15" t="n">
         <f aca="false">S7/(L7-T7)</f>
         <v>0.734652187127279</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,11 +1195,11 @@
         <f aca="false">N8/Q8*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="U8" s="15" t="n">
         <f aca="false">(L8-T8)/L8</f>
         <v>0.437453290463164</v>
       </c>
-      <c r="V8" s="13" t="n">
+      <c r="V8" s="15" t="n">
         <f aca="false">S8/(L8-T8)</f>
         <v>0.738275454221204</v>
       </c>
@@ -1272,11 +1281,11 @@
         <f aca="false">N9/Q9*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="15" t="n">
         <f aca="false">(L9-T9)/L9</f>
         <v>0.436845788617012</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="15" t="n">
         <f aca="false">S9/(L9-T9)</f>
         <v>0.740100523225958</v>
       </c>
@@ -1358,11 +1367,11 @@
         <f aca="false">N10/Q10*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="U10" s="15" t="n">
         <f aca="false">(L10-T10)/L10</f>
         <v>0.436236973253355</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="15" t="n">
         <f aca="false">S10/(L10-T10)</f>
         <v>0.741934637991129</v>
       </c>
@@ -1444,16 +1453,16 @@
         <f aca="false">N11/Q11*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="15" t="n">
         <f aca="false">(L11-T11)/L11</f>
         <v>0.406058314646188</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="15" t="n">
         <f aca="false">S11/(L11-T11)</f>
         <v>0.839744034961099</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,11 +1539,11 @@
         <f aca="false">N12/Q12*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="15" t="n">
         <f aca="false">(L12-T12)/L12</f>
         <v>0.404702283401088</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="15" t="n">
         <f aca="false">S12/(L12-T12)</f>
         <v>0.844481403398955</v>
       </c>
@@ -1616,11 +1625,11 @@
         <f aca="false">N13/Q13*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="15" t="n">
         <f aca="false">(L13-T13)/L13</f>
         <v>0.404702283401088</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="15" t="n">
         <f aca="false">S13/(L13-T13)</f>
         <v>0.844481403398954</v>
       </c>
@@ -1702,11 +1711,11 @@
         <f aca="false">N14/Q14*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="15" t="n">
         <f aca="false">(L14-T14)/L14</f>
         <v>0.404021943153547</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="15" t="n">
         <f aca="false">S14/(L14-T14)</f>
         <v>0.84687018851382</v>
       </c>
@@ -1788,16 +1797,16 @@
         <f aca="false">N15/Q15*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="15" t="n">
         <f aca="false">(L15-T15)/L15</f>
         <v>0.37095199066267</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="15" t="n">
         <f aca="false">S15/(L15-T15)</f>
         <v>0.973548550836503</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,11 +1883,11 @@
         <f aca="false">N16/Q16*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U16" s="13" t="n">
+      <c r="U16" s="15" t="n">
         <f aca="false">(L16-T16)/L16</f>
         <v>0.37095199066267</v>
       </c>
-      <c r="V16" s="13" t="n">
+      <c r="V16" s="15" t="n">
         <f aca="false">S16/(L16-T16)</f>
         <v>0.973548550836503</v>
       </c>
@@ -1960,11 +1969,11 @@
         <f aca="false">N17/Q17*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="U17" s="15" t="n">
         <f aca="false">(L17-T17)/L17</f>
         <v>0.37095199066267</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="15" t="n">
         <f aca="false">S17/(L17-T17)</f>
         <v>0.973548550836503</v>
       </c>
@@ -1988,35 +1997,35 @@
       <c r="E18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="16" t="n">
         <v>0.694444444444444</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>8.22</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="17" t="n">
         <f aca="false">G19-G18</f>
         <v>0.58</v>
       </c>
-      <c r="I18" s="17" t="n">
+      <c r="I18" s="18" t="n">
         <v>11.52</v>
       </c>
-      <c r="J18" s="17" t="n">
+      <c r="J18" s="18" t="n">
         <v>29.31</v>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="K18" s="19" t="n">
         <f aca="false">K19-H18</f>
         <v>8.29</v>
       </c>
-      <c r="L18" s="19" t="n">
+      <c r="L18" s="20" t="n">
         <f aca="false">0.25*PI()*J18*J18*K18</f>
         <v>5593.40219870515</v>
       </c>
-      <c r="M18" s="20" t="n">
+      <c r="M18" s="21" t="n">
         <f aca="false">I18/L18*1000</f>
         <v>2.05956939815035</v>
       </c>
-      <c r="N18" s="17" t="n">
+      <c r="N18" s="18" t="n">
         <f aca="false">N19</f>
         <v>9.5</v>
       </c>
@@ -2024,15 +2033,15 @@
         <f aca="false">I18-N18</f>
         <v>2.02</v>
       </c>
-      <c r="P18" s="20" t="n">
+      <c r="P18" s="21" t="n">
         <f aca="false">N18/L18*1000</f>
         <v>1.69842962521079</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="22" t="n">
         <f aca="false">Q19</f>
         <v>2.7</v>
       </c>
-      <c r="R18" s="22" t="n">
+      <c r="R18" s="23" t="n">
         <f aca="false">O18/N18</f>
         <v>0.212631578947368</v>
       </c>
@@ -2040,15 +2049,15 @@
         <f aca="false">O18*1000</f>
         <v>2020</v>
       </c>
-      <c r="T18" s="23" t="n">
+      <c r="T18" s="24" t="n">
         <f aca="false">N18/Q18*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U18" s="22" t="n">
+      <c r="U18" s="25" t="n">
         <f aca="false">(L18-T18)/L18</f>
         <v>0.37095199066267</v>
       </c>
-      <c r="V18" s="22" t="n">
+      <c r="V18" s="25" t="n">
         <f aca="false">S18/(L18-T18)</f>
         <v>0.973548550836502</v>
       </c>
@@ -2057,59 +2066,59 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="26" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26" t="n">
+      <c r="H19" s="27"/>
+      <c r="I19" s="28" t="n">
         <v>11.52</v>
       </c>
-      <c r="J19" s="26" t="n">
+      <c r="J19" s="28" t="n">
         <v>29.31</v>
       </c>
-      <c r="K19" s="26" t="n">
+      <c r="K19" s="28" t="n">
         <v>8.87</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="26" t="n">
+      <c r="N19" s="28" t="n">
         <v>9.5</v>
       </c>
       <c r="P19" s="12"/>
-      <c r="Q19" s="27" t="n">
+      <c r="Q19" s="29" t="n">
         <v>2.7</v>
       </c>
-      <c r="R19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
+      <c r="R19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="1" t="n">
         <v>9.09</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="29" t="n">
+      <c r="G22" s="31" t="n">
         <v>9.22</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="29" t="n">
+      <c r="G23" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="32" t="s">
         <v>54</v>
       </c>
     </row>
